--- a/HMI_testbench/自定义地址表.xlsx
+++ b/HMI_testbench/自定义地址表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\dwLaser\HMI_testbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\dwLaser\HMI_testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0270BD5-706C-46A5-9E20-57681A709CCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8559254B-5817-4C31-A56A-096C8D039AAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16425" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="标签" sheetId="1" r:id="rId1"/>
@@ -5091,7 +5091,7 @@
         <v>191</v>
       </c>
       <c r="D158">
-        <v>16692</v>
+        <v>16992</v>
       </c>
       <c r="F158" t="s">
         <v>5</v>
@@ -5108,7 +5108,7 @@
         <v>191</v>
       </c>
       <c r="D159">
-        <v>16693</v>
+        <v>16993</v>
       </c>
       <c r="F159" t="s">
         <v>5</v>
@@ -5125,7 +5125,7 @@
         <v>191</v>
       </c>
       <c r="D160">
-        <v>16694</v>
+        <v>16994</v>
       </c>
       <c r="F160" t="s">
         <v>5</v>
@@ -5142,7 +5142,7 @@
         <v>191</v>
       </c>
       <c r="D161">
-        <v>16695</v>
+        <v>16995</v>
       </c>
       <c r="F161" t="s">
         <v>5</v>
@@ -5159,7 +5159,7 @@
         <v>191</v>
       </c>
       <c r="D162">
-        <v>16696</v>
+        <v>16996</v>
       </c>
       <c r="F162" t="s">
         <v>5</v>
@@ -5176,7 +5176,7 @@
         <v>191</v>
       </c>
       <c r="D163">
-        <v>16697</v>
+        <v>16997</v>
       </c>
       <c r="F163" t="s">
         <v>5</v>
@@ -5193,7 +5193,7 @@
         <v>191</v>
       </c>
       <c r="D164">
-        <v>16698</v>
+        <v>16998</v>
       </c>
       <c r="F164" t="s">
         <v>5</v>
@@ -5210,7 +5210,7 @@
         <v>191</v>
       </c>
       <c r="D165">
-        <v>16699</v>
+        <v>16999</v>
       </c>
       <c r="F165" t="s">
         <v>5</v>
